--- a/public/templates/template_siswa.xlsx
+++ b/public/templates/template_siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\JS\projects\TEFA\K-NEKt\next-k-nekt\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9583C3B7-4A3C-43ED-9D07-D700630F1D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A21EBA1-4FA9-495E-97BC-DEC5690BE15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A3E1C4B5-7DCC-4DDC-9A04-C6879DE2D798}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NIS</t>
   </si>
@@ -49,13 +49,19 @@
   </si>
   <si>
     <t>XII RPL 2</t>
+  </si>
+  <si>
+    <t>PETUNJUK</t>
+  </si>
+  <si>
+    <t>PERHATIAN: Kelas harus sama persis namanya dengan data yang terdaftar sebagai kelas (perhatikan juga huruf besar kecilnya).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +74,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -113,6 +127,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F27F95-F795-4614-8D34-EDC7E90B2DEE}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,9 +453,11 @@
     <col min="2" max="2" width="14.36328125" customWidth="1"/>
     <col min="3" max="3" width="15.54296875" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="7" max="7" width="111.1796875" customWidth="1"/>
+    <col min="9" max="9" width="63.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +470,12 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>12345678</v>
       </c>
@@ -467,14 +488,17 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
